--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429002.657004467</v>
+        <v>426579.0504571259</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>199.9718657750091</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>380.7210372967054</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>13.04567772575194</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -786,13 +786,13 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.7837154089691432</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>79.67044464569749</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>105.6693738390795</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>335.1891847367785</v>
+        <v>161.0734765729416</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>83.8475061384131</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>99.64736545068973</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>82.13306042727088</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>310.4447120429606</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.797723652703247</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>47.35300087092254</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>78.05821841803052</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>162.7926158915261</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>67.00771475394289</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>185.7933937888484</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>116.9323399797429</v>
+        <v>13.74238375877684</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323825</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>77.39507264402766</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229299</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>190.4281593935562</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>260.7779582586294</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>157.2343752954199</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>86.24032515900413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>11.81332727248864</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>100.3801551430683</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.1441996497202</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>175.3253504652189</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>253.2767670237428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>50.49265242092922</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>140.575894358866</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1517.887535471216</v>
+        <v>1702.495591924216</v>
       </c>
       <c r="C2" t="n">
-        <v>1148.925018530804</v>
+        <v>1333.533074983804</v>
       </c>
       <c r="D2" t="n">
-        <v>790.659319924054</v>
+        <v>1333.533074983804</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>947.7448223855602</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>536.7589175959525</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>121.686467440949</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="3">
@@ -4398,16 +4398,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.9873130439991</v>
+        <v>217.4203875707506</v>
       </c>
       <c r="C4" t="n">
-        <v>146.9873130439991</v>
+        <v>217.4203875707506</v>
       </c>
       <c r="D4" t="n">
-        <v>146.9873130439991</v>
+        <v>67.30374815841486</v>
       </c>
       <c r="E4" t="n">
-        <v>146.9873130439991</v>
+        <v>67.30374815841486</v>
       </c>
       <c r="F4" t="n">
-        <v>146.9873130439991</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>146.9873130439991</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>474.5166334391246</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>474.5166334391246</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X4" t="n">
-        <v>367.7798921875292</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="Y4" t="n">
-        <v>146.9873130439991</v>
+        <v>217.4203875707506</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1506.363819949361</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C5" t="n">
-        <v>1137.401303008949</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="D5" t="n">
-        <v>1137.401303008949</v>
+        <v>1323.570355598078</v>
       </c>
       <c r="E5" t="n">
-        <v>751.613050410705</v>
+        <v>937.7821029998333</v>
       </c>
       <c r="F5" t="n">
-        <v>744.6675496615015</v>
+        <v>526.7961982102258</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4580,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013483</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.5472171493652</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>746.3620979308512</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>746.3620979308512</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450114</v>
+        <v>746.3620979308512</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450114</v>
+        <v>746.3620979308512</v>
       </c>
       <c r="W7" t="n">
-        <v>729.2011216450114</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="X7" t="n">
-        <v>628.5472171493652</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="Y7" t="n">
-        <v>628.5472171493652</v>
+        <v>456.9449278938906</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278969</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.1511359853714</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>914.0206182902018</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>692.2540028597278</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>403.1511359853714</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>403.1511359853714</v>
+        <v>873.055691807152</v>
       </c>
       <c r="W10" t="n">
-        <v>403.1511359853714</v>
+        <v>583.6385217701915</v>
       </c>
       <c r="X10" t="n">
-        <v>403.1511359853714</v>
+        <v>583.6385217701915</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.1511359853714</v>
+        <v>362.8459426266613</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913858</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913858</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998423</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3799.892152077446</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>3799.892152077446</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>3799.892152077446</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>3799.892152077446</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>3653.002204579536</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>3485.806105294416</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>3344.094274136614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>3344.094274136614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>3391.030413657442</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>3547.043347501774</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>3776.591987151576</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>4021.877125582259</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
-        <v>4269.18745756625</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>4477.305488573012</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>4636.32444646567</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
-        <v>4690.833152398595</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>4690.833152398595</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>4507.9783180535</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>4288.376853076441</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U13" t="n">
-        <v>4288.376853076441</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V13" t="n">
-        <v>4209.530167805703</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="W13" t="n">
-        <v>4209.530167805703</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="X13" t="n">
-        <v>3981.540616907686</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="Y13" t="n">
-        <v>3981.540616907686</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3045.530642171612</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C16" t="n">
-        <v>2876.594459243705</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D16" t="n">
-        <v>2876.594459243705</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E16" t="n">
-        <v>2728.681365661312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>4623.787448650997</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>4440.932614305902</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>4221.331149328843</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>3932.255922673041</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>3744.58582793683</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W16" t="n">
-        <v>3455.16865789987</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X16" t="n">
-        <v>3227.179107001852</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y16" t="n">
-        <v>3227.179107001852</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828446</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.5772922261173</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>815.6411092982104</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5665,58 +5665,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304625</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267665</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369647</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261173</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5744,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5765,25 +5765,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021787</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958744</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679675</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133941</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310009</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267662</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261141</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2004.71086933246</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.635642676658</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6312,13 +6312,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311365</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613763</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2345.568987476151</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2125.967522499092</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.89229584329</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.207807637403</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.661204897168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>874.8686257536381</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7266,13 +7266,13 @@
         <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1788.671666052305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1533.987177846418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1244.570007809457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1016.58045691144</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.58045691144</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.5837926935558</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>666.6476097656489</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>516.5309703533131</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>368.61787677092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.232257523796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>281.5620866615685</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>120.0402815499577</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>174.0794249057975</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>55.79203746056874</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>79.42624789262628</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>66.34424953497955</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>31.68313303846949</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>71.22040037418469</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>26.97729093373209</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8.289762996848992</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>153.7108110197802</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>80.6461308585763</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520993</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>32.9077073655013</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>94.92839560200203</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>4.845153664065208</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>982255.7385075956</v>
+        <v>982255.7385075962</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>998623.8045192219</v>
+        <v>998623.8045192217</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1043750.569765054</v>
+        <v>1043750.569765053</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>365938.4123851825</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>372036.3193306904</v>
+        <v>372036.3193306903</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.6348527531</v>
-      </c>
-      <c r="H2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64690.18151540485</v>
+        <v>64690.18151540517</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835456</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26436,7 +26436,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26445,16 +26445,16 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687972</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1135430.455419208</v>
+        <v>-1135557.068199737</v>
       </c>
       <c r="C6" t="n">
         <v>188464.1560200886</v>
       </c>
       <c r="D6" t="n">
-        <v>188464.1560200885</v>
+        <v>188464.1560200886</v>
       </c>
       <c r="E6" t="n">
-        <v>-55260.0605092562</v>
+        <v>-55354.57904270212</v>
       </c>
       <c r="F6" t="n">
-        <v>266835.4650219664</v>
+        <v>266800.7270965305</v>
       </c>
       <c r="G6" t="n">
-        <v>266835.4650219663</v>
+        <v>266800.7270965305</v>
       </c>
       <c r="H6" t="n">
-        <v>266835.4650219662</v>
+        <v>266800.7270965306</v>
       </c>
       <c r="I6" t="n">
-        <v>266835.4650219665</v>
+        <v>266800.7270965304</v>
       </c>
       <c r="J6" t="n">
-        <v>49304.26262468866</v>
+        <v>49269.52469925294</v>
       </c>
       <c r="K6" t="n">
-        <v>266835.4650219661</v>
+        <v>266800.7270965303</v>
       </c>
       <c r="L6" t="n">
-        <v>266835.4650219662</v>
+        <v>266800.7270965305</v>
       </c>
       <c r="M6" t="n">
-        <v>181780.4370864542</v>
+        <v>181745.6991610186</v>
       </c>
       <c r="N6" t="n">
-        <v>266835.4650219661</v>
+        <v>266800.7270965305</v>
       </c>
       <c r="O6" t="n">
-        <v>266835.4650219661</v>
+        <v>266800.7270965304</v>
       </c>
       <c r="P6" t="n">
-        <v>266835.465021966</v>
+        <v>266800.7270965305</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,16 +26796,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>182.7619758884714</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.209332775556334</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>144.6373326139621</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>65.0845702686233</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>75.73254091667496</v>
+        <v>249.8482490805119</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>105.9215191930288</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>126.0622899383474</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>272.5499811934121</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>17.30754642717432</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,25 +28059,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>182.9713016787387</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>204.7846424529055</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29736,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-2.498886297310756e-12</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>705.9257335045835</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>431.3680753731345</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>602.8420149078232</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>362.180468412921</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>434.178635838203</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>152.0754244981388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>574.5840214212502</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023014</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775772</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454458</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.625209992584</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214698</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>297.3936679588043</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>471.5003028244899</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>224.339029438562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>291.5823913937585</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
